--- a/Project Details/TestingPlan.xlsx
+++ b/Project Details/TestingPlan.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leslie\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tGUPOzAZ4h83mfIPxtb6R4t6ymiVbVyGSs4HgyGGbj2OjPAF9Pb79SBX3ljEL1W8UwjQLEcLK62aMV83MZDW7A==" workbookSaltValue="PpK+HtednJUT2ImEnYetfQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21624" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="5.1.1" sheetId="6" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <sheet name="5.5.2" sheetId="11" r:id="rId10"/>
     <sheet name="5.5.3" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
   <si>
     <t>Test Writer:</t>
   </si>
@@ -142,9 +137,6 @@
     <t>5.4.2</t>
   </si>
   <si>
-    <t>It was Programmed</t>
-  </si>
-  <si>
     <t>Testing Two Units</t>
   </si>
   <si>
@@ -167,6 +159,73 @@
   </si>
   <si>
     <t>Testing Four Units</t>
+  </si>
+  <si>
+    <t>Black Box</t>
+  </si>
+  <si>
+    <t>Board Should be completely assembled with Power Supply connected</t>
+  </si>
+  <si>
+    <t>Checks to Make sure that Power is being supplied to the board at the correct voltages. All measured voltages must be +- 5% of desired voltage to pass test. A multimeter will be used to measure voltag.</t>
+  </si>
+  <si>
+    <t>Measure voltage out of +3.3V regulator</t>
+  </si>
+  <si>
+    <t>Measure voltage out of +5V regulator</t>
+  </si>
+  <si>
+    <t>A measured voltage of 4.75-5.25V</t>
+  </si>
+  <si>
+    <t>A measured voltage of 3.14-3.47V</t>
+  </si>
+  <si>
+    <t>Measure voltage on microcontroller</t>
+  </si>
+  <si>
+    <t>Measure voltage on RF module</t>
+  </si>
+  <si>
+    <t>Measure voltage on 
+IR sensor</t>
+  </si>
+  <si>
+    <t>Connect Power Supply and verify voltage at power supply</t>
+  </si>
+  <si>
+    <t>A measured Voltage of 8.9-9.1V</t>
+  </si>
+  <si>
+    <t>Checks to make sure that power is initially being supplied to the unit</t>
+  </si>
+  <si>
+    <t>Flip Switch on Power section of board</t>
+  </si>
+  <si>
+    <t>Verify that Power LED illumination lights up/turns off with flipping the switch</t>
+  </si>
+  <si>
+    <t>Microcontroller was Programmed</t>
+  </si>
+  <si>
+    <t>Test to verify that the microcontroller has the correct firmware running on it</t>
+  </si>
+  <si>
+    <t>Unit should be fully assembled and powered on</t>
+  </si>
+  <si>
+    <t>Trip the IR sensor</t>
+  </si>
+  <si>
+    <t>Verify that this units LED light is illuminated when the IR sensor is tripped</t>
+  </si>
+  <si>
+    <t>Two powered-on units should be placed on on opposite ends of a room from each other - maximum 100ft away</t>
+  </si>
+  <si>
+    <t>Three powered-on units should be placed on on opposite ends of a room from each other - maximum 100ft away from the farthest module. Each unit should be given a unique ID via the DIP switch.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -682,126 +741,307 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -838,145 +1078,47 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2847,7 +2989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2855,19 +2997,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2877,234 +3019,246 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3113,6 +3267,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3124,17 +3290,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3144,234 +3311,226 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3380,6 +3539,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3391,17 +3562,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3411,234 +3583,226 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3647,6 +3811,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3658,17 +3834,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3678,234 +3854,252 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
+  <mergeCells count="19">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3914,6 +4108,17 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3929,13 +4134,13 @@
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3945,234 +4150,222 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4181,6 +4374,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4196,13 +4401,13 @@
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4212,234 +4417,222 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4448,6 +4641,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4463,13 +4668,13 @@
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4479,234 +4684,222 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4715,6 +4908,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4730,13 +4935,13 @@
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4746,234 +4951,222 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4982,6 +5175,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4997,13 +5202,13 @@
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5013,234 +5218,222 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5249,6 +5442,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5260,17 +5465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5280,234 +5485,230 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5516,6 +5717,18 @@
     <mergeCell ref="A4:B7"/>
     <mergeCell ref="C4:F7"/>
     <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5528,16 +5741,17 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5547,238 +5761,232 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="31" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="68">
-        <v>1</v>
-      </c>
-      <c r="B13" s="74" t="s">
+      <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C9:F9"/>
@@ -5789,6 +5997,16 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Details/TestingPlan.xlsx
+++ b/Project Details/TestingPlan.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tGUPOzAZ4h83mfIPxtb6R4t6ymiVbVyGSs4HgyGGbj2OjPAF9Pb79SBX3ljEL1W8UwjQLEcLK62aMV83MZDW7A==" workbookSaltValue="PpK+HtednJUT2ImEnYetfQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leslie\Documents\GitHub\SignalSenders\Project Details\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21636" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="5.1.1" sheetId="6" r:id="rId1"/>
@@ -14,11 +18,10 @@
     <sheet name="5.2.2" sheetId="9" r:id="rId4"/>
     <sheet name="5.3.1" sheetId="4" r:id="rId5"/>
     <sheet name="5.3.2" sheetId="5" r:id="rId6"/>
-    <sheet name="5.4.1" sheetId="3" r:id="rId7"/>
-    <sheet name="5.4.2" sheetId="10" r:id="rId8"/>
-    <sheet name="5.5.1" sheetId="1" r:id="rId9"/>
-    <sheet name="5.5.2" sheetId="11" r:id="rId10"/>
-    <sheet name="5.5.3" sheetId="12" r:id="rId11"/>
+    <sheet name="5.4.1" sheetId="10" r:id="rId7"/>
+    <sheet name="5.5.1" sheetId="1" r:id="rId8"/>
+    <sheet name="5.5.2" sheetId="11" r:id="rId9"/>
+    <sheet name="5.5.3" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
   <si>
     <t>Test Writer:</t>
   </si>
@@ -131,12 +134,6 @@
     <t>5.4.1</t>
   </si>
   <si>
-    <t>Power to unit</t>
-  </si>
-  <si>
-    <t>5.4.2</t>
-  </si>
-  <si>
     <t>Testing Two Units</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>North Unit Sends a Signal</t>
   </si>
   <si>
-    <t>South Unit Recieves North Unit Signal</t>
-  </si>
-  <si>
     <t>Testing Three Units</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>Board Should be completely assembled with Power Supply connected</t>
-  </si>
-  <si>
-    <t>Checks to Make sure that Power is being supplied to the board at the correct voltages. All measured voltages must be +- 5% of desired voltage to pass test. A multimeter will be used to measure voltag.</t>
   </si>
   <si>
     <t>Measure voltage out of +3.3V regulator</t>
@@ -198,9 +189,6 @@
     <t>A measured Voltage of 8.9-9.1V</t>
   </si>
   <si>
-    <t>Checks to make sure that power is initially being supplied to the unit</t>
-  </si>
-  <si>
     <t>Flip Switch on Power section of board</t>
   </si>
   <si>
@@ -210,9 +198,6 @@
     <t>Microcontroller was Programmed</t>
   </si>
   <si>
-    <t>Test to verify that the microcontroller has the correct firmware running on it</t>
-  </si>
-  <si>
     <t>Unit should be fully assembled and powered on</t>
   </si>
   <si>
@@ -226,13 +211,127 @@
   </si>
   <si>
     <t>Three powered-on units should be placed on on opposite ends of a room from each other - maximum 100ft away from the farthest module. Each unit should be given a unique ID via the DIP switch.</t>
+  </si>
+  <si>
+    <t>Checks to make sure that Power is being supplied to the board at the correct voltages. All measured voltages must be +- 5% of desired voltage to pass test. A multimeter will be used to measure voltage.</t>
+  </si>
+  <si>
+    <t>Checks to make sure that power is initially being supplied to the unit.</t>
+  </si>
+  <si>
+    <t>The purpose of this test is to make sure that the IR Module is getting +5V.</t>
+  </si>
+  <si>
+    <t>Before connecting unit, verify voltage at connection</t>
+  </si>
+  <si>
+    <t>A measured Voltage of 4.9-5.1V</t>
+  </si>
+  <si>
+    <t>Connect IR Unit</t>
+  </si>
+  <si>
+    <t>Connect multimeter to make sure that the unit is getting power</t>
+  </si>
+  <si>
+    <t>Test to verify that the microcontroller has the correct firmware running on it.</t>
+  </si>
+  <si>
+    <t>South Unit Sends a Signal</t>
+  </si>
+  <si>
+    <t>Both Units Sends Signals</t>
+  </si>
+  <si>
+    <t>Both associated LED's Light up</t>
+  </si>
+  <si>
+    <t>Neither Sends a signal</t>
+  </si>
+  <si>
+    <t>No LED's Light up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait 60 seconds </t>
+  </si>
+  <si>
+    <t>All LED's off</t>
+  </si>
+  <si>
+    <t>South and West Unit Recieves North Unit Signal</t>
+  </si>
+  <si>
+    <t>North and West Unit Recieves South Unit Signal</t>
+  </si>
+  <si>
+    <t>West Unit Sends a Signal</t>
+  </si>
+  <si>
+    <t>North and South Unit Recieves South Unit Signal</t>
+  </si>
+  <si>
+    <t>All Units Sends Signals</t>
+  </si>
+  <si>
+    <t>All associated LED's Light up</t>
+  </si>
+  <si>
+    <t>South Unit Receives North Unit Signal</t>
+  </si>
+  <si>
+    <t>North Unit Receives South Unit Signal</t>
+  </si>
+  <si>
+    <t>Verify that two units are communicating in an appropriate manner under various conditions.</t>
+  </si>
+  <si>
+    <t>Verify that three units are communicating in an appropriate manner under various conditions.</t>
+  </si>
+  <si>
+    <t>South and West and East Unit Recieves North Unit Signal</t>
+  </si>
+  <si>
+    <t>North and West and East Unit Recieves South Unit Signal</t>
+  </si>
+  <si>
+    <t>East Unit Sends a Signal</t>
+  </si>
+  <si>
+    <t>North and South and West Unit Recieves South Unit Signal</t>
+  </si>
+  <si>
+    <t>North and South and East Unit Recieves South Unit Signal</t>
+  </si>
+  <si>
+    <t>Verify that four units are communicating in an appropriate manner under various conditions.</t>
+  </si>
+  <si>
+    <t>Test Writer: Chris Klupenger</t>
+  </si>
+  <si>
+    <t>Test Writer: Leslie Eide</t>
+  </si>
+  <si>
+    <t>Trip IR sensor</t>
+  </si>
+  <si>
+    <t>Output Voltage of 3.2-3.4 V</t>
+  </si>
+  <si>
+    <t>Output Signal</t>
+  </si>
+  <si>
+    <t>Time Duration of signal for 10 seconds</t>
+  </si>
+  <si>
+    <t>The purpose of this test is to record the output voltage and the duration of the signal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,13 +369,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -296,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -780,11 +872,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -859,6 +990,54 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -898,6 +1077,117 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -907,12 +1197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -925,12 +1209,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -944,173 +1222,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1119,6 +1230,38 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1285,151 +1428,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="PSU_white_screen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2484120" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="WordArt 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4244340" y="99060"/>
-          <a:ext cx="2171700" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst/>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" fromWordArt="1">
-          <a:prstTxWarp prst="textPlain">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstTxWarp>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" kern="10" spc="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SignalSenders</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2482,7 +2480,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2484120" cy="419100"/>
+          <a:ext cx="2057400" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,14 +2527,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="WordArt 2"/>
+        <xdr:cNvPr id="1026" name="WordArt 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4244340" y="99060"/>
+          <a:off x="3223260" y="99060"/>
           <a:ext cx="2171700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2627,7 +2625,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2057400" cy="419100"/>
+          <a:ext cx="2484120" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2674,14 +2672,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="WordArt 2"/>
+        <xdr:cNvPr id="3" name="WordArt 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3223260" y="99060"/>
+          <a:off x="4244340" y="99060"/>
           <a:ext cx="2171700" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2989,7 +2987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2997,19 +2995,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3019,29 +3021,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3049,107 +3051,107 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3168,89 +3170,89 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>54</v>
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>57</v>
+      <c r="B14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -3281,27 +3283,30 @@
     <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3311,139 +3316,139 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
+      <c r="C11" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3462,75 +3467,163 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>88</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>4</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>5</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>6</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>7</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3544,285 +3637,17 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="C4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3832,19 +3657,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3854,29 +3682,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -3884,105 +3712,105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -4001,97 +3829,97 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>48</v>
+      <c r="B13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>49</v>
+      <c r="B14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>48</v>
+      <c r="B15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>5</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="25" t="s">
         <v>48</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4128,19 +3956,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4150,29 +3981,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -4180,103 +4011,103 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4297,50 +4128,62 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4349,15 +4192,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4395,19 +4238,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4417,29 +4263,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -4447,103 +4293,103 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4564,50 +4410,62 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4616,15 +4474,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4664,17 +4522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4684,29 +4542,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -4714,103 +4572,103 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4831,50 +4689,50 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4883,15 +4741,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4931,17 +4789,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4951,29 +4809,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -4981,103 +4839,103 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5098,50 +4956,50 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -5150,15 +5008,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5196,19 +5054,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5218,29 +5079,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -5248,103 +5109,105 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5365,50 +5228,56 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -5417,15 +5286,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5463,19 +5332,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5485,29 +5358,29 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
@@ -5515,105 +5388,107 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5634,81 +5509,468 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>7</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="31"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5722,291 +5984,16 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Details/TestingPlan.xlsx
+++ b/Project Details/TestingPlan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leslie\Documents\GitHub\SignalSenders\Project Details\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21636" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5.1.1" sheetId="6" r:id="rId1"/>
@@ -33,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="97">
-  <si>
-    <t>Test Writer:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="102">
   <si>
     <t>Test Case Name:</t>
   </si>
@@ -92,9 +84,6 @@
     <t>Overall test result:</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -122,12 +111,6 @@
     <t>5.3.1</t>
   </si>
   <si>
-    <t>Signal Sending</t>
-  </si>
-  <si>
-    <t>Signal Receiving</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
@@ -176,13 +159,6 @@
     <t>Measure voltage on microcontroller</t>
   </si>
   <si>
-    <t>Measure voltage on RF module</t>
-  </si>
-  <si>
-    <t>Measure voltage on 
-IR sensor</t>
-  </si>
-  <si>
     <t>Connect Power Supply and verify voltage at power supply</t>
   </si>
   <si>
@@ -325,6 +301,39 @@
   </si>
   <si>
     <t>The purpose of this test is to record the output voltage and the duration of the signal.</t>
+  </si>
+  <si>
+    <t>The purpose of this test is to make sure that the RF Module is getting +3.3V +- 10%.</t>
+  </si>
+  <si>
+    <t>Power to RF Unit</t>
+  </si>
+  <si>
+    <t>Connect RF Unit</t>
+  </si>
+  <si>
+    <t>A measured Voltage of 3-3.6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transceiver Capability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test module’s ability to both send and receive messages with no interference. </t>
+  </si>
+  <si>
+    <t>Serial Port ready message displayed</t>
+  </si>
+  <si>
+    <t>Start Arduino Tester software on Arduino</t>
+  </si>
+  <si>
+    <t>Begin Test</t>
+  </si>
+  <si>
+    <t>Connect Module to Arduino</t>
+  </si>
+  <si>
+    <t>Test Writer:Max Cope</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1038,6 +1047,162 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1077,148 +1242,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1233,10 +1262,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1245,10 +1270,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1257,13 +1278,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2987,7 +3008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3001,17 +3022,17 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3021,213 +3042,213 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -3244,15 +3265,15 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -3261,6 +3282,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3274,13 +3302,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
@@ -3299,14 +3320,14 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3316,306 +3337,306 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>4</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>5</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>6</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>7</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
@@ -3624,6 +3645,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3637,17 +3669,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3662,17 +3683,17 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3682,244 +3703,232 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
     </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>5</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>44</v>
-      </c>
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -3928,6 +3937,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -3941,12 +3956,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3962,16 +3971,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="C14" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3981,209 +3990,209 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="33"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4192,15 +4201,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4209,6 +4218,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4222,13 +4238,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4247,13 +4256,13 @@
       <selection activeCell="A8" sqref="A8:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4263,209 +4272,209 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4474,15 +4483,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4491,6 +4500,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4504,13 +4520,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4520,19 +4529,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4542,197 +4554,209 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4741,15 +4765,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4758,6 +4782,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -4771,13 +4802,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4787,19 +4811,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4809,197 +4836,213 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="H12" s="82"/>
+    </row>
+    <row r="13" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="99"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>97</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>3</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -5008,15 +5051,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5025,6 +5068,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5038,13 +5088,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5063,13 +5106,13 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5079,205 +5122,205 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -5286,15 +5329,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5303,6 +5346,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5316,13 +5366,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5341,14 +5384,14 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5358,219 +5401,219 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -5583,39 +5626,39 @@
         <v>5</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>6</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -5624,17 +5667,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C9:F9"/>
@@ -5644,6 +5676,17 @@
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5662,14 +5705,14 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5679,290 +5722,290 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="77" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="93"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="82"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>3</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
+        <v>71</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="91"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>6</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>7</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
@@ -5971,6 +6014,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="A2:H2"/>
@@ -5984,16 +6037,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Details/TestingPlan.xlsx
+++ b/Project Details/TestingPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21630" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="5.1.1" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
   <si>
     <t>Test Case Name:</t>
   </si>
@@ -264,21 +264,9 @@
     <t>Verify that three units are communicating in an appropriate manner under various conditions.</t>
   </si>
   <si>
-    <t>South and West and East Unit Recieves North Unit Signal</t>
-  </si>
-  <si>
-    <t>North and West and East Unit Recieves South Unit Signal</t>
-  </si>
-  <si>
     <t>East Unit Sends a Signal</t>
   </si>
   <si>
-    <t>North and South and West Unit Recieves South Unit Signal</t>
-  </si>
-  <si>
-    <t>North and South and East Unit Recieves South Unit Signal</t>
-  </si>
-  <si>
     <t>Verify that four units are communicating in an appropriate manner under various conditions.</t>
   </si>
   <si>
@@ -321,19 +309,64 @@
     <t xml:space="preserve">Test module’s ability to both send and receive messages with no interference. </t>
   </si>
   <si>
-    <t>Serial Port ready message displayed</t>
-  </si>
-  <si>
-    <t>Start Arduino Tester software on Arduino</t>
-  </si>
-  <si>
-    <t>Begin Test</t>
-  </si>
-  <si>
-    <t>Connect Module to Arduino</t>
-  </si>
-  <si>
     <t>Test Writer:Max Cope</t>
+  </si>
+  <si>
+    <t>Module receives power and is on.</t>
+  </si>
+  <si>
+    <t>Serial Port "Ready" message displayed on screen.</t>
+  </si>
+  <si>
+    <t>Connect module two to Arduino two</t>
+  </si>
+  <si>
+    <t>Connect module one to Arduino two</t>
+  </si>
+  <si>
+    <t>Start Arduino tester software on Arduino one</t>
+  </si>
+  <si>
+    <t>Start Arduino tester software on Arduino two</t>
+  </si>
+  <si>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t>Serial port "Ready" message displayed on screen.</t>
+  </si>
+  <si>
+    <t>Serial port should show a read out of the units "pinging" eachother and displaying timing results.</t>
+  </si>
+  <si>
+    <t>White Box</t>
+  </si>
+  <si>
+    <t>Power section on PCB should be set up with power supply attached and switch on</t>
+  </si>
+  <si>
+    <t>Board is fully powered on and IR unit is installed on the unit</t>
+  </si>
+  <si>
+    <t>Board is fully powered on and RF unit is installed on the unit</t>
+  </si>
+  <si>
+    <t>Two Arduino Unos are set up with RF test software loaded</t>
+  </si>
+  <si>
+    <t>Three powered-on units should be placed on opposite ends of a room from each other - maximum 100ft away from the farthest module. Each unit should be given a unique ID via the DIP switch.</t>
+  </si>
+  <si>
+    <t>South and West and East Unit Receives North Unit Signal</t>
+  </si>
+  <si>
+    <t>North and West and East Unit Receives South Unit Signal</t>
+  </si>
+  <si>
+    <t>North and South and East Unit Receives South Unit Signal</t>
+  </si>
+  <si>
+    <t>North and South and West Unit Receives South Unit Signal</t>
   </si>
 </sst>
 </file>
@@ -924,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1059,6 +1092,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1277,14 +1317,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3022,8 +3054,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,6 +3065,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3043,28 +3076,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3073,104 +3106,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3191,10 +3226,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -3209,8 +3244,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -3225,8 +3260,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -3235,8 +3270,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -3245,8 +3280,8 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
@@ -3265,15 +3300,15 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -3304,7 +3339,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3313,11 +3348,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,28 +3374,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3368,17 +3404,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -3386,88 +3422,88 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -3488,10 +3524,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -3501,13 +3537,13 @@
         <v>31</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -3517,13 +3553,13 @@
         <v>61</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -3533,29 +3569,29 @@
         <v>70</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>4</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
@@ -3570,8 +3606,8 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
@@ -3586,8 +3622,8 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -3602,8 +3638,8 @@
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
@@ -3618,8 +3654,8 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
@@ -3628,15 +3664,15 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
@@ -3671,7 +3707,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3680,11 +3716,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,6 +3731,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3704,28 +3742,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -3734,104 +3772,108 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41"/>
+      <c r="C11" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -3850,10 +3892,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -3868,8 +3910,8 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -3884,8 +3926,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -3900,8 +3942,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -3920,15 +3962,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -3958,7 +4000,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3967,11 +4009,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A13:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,6 +4024,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3991,28 +4035,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4021,102 +4065,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4137,10 +4185,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -4155,8 +4203,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -4171,8 +4219,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -4181,8 +4229,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -4191,8 +4239,8 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4201,15 +4249,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4240,7 +4288,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4249,11 +4297,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4263,6 +4312,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4273,28 +4323,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4303,102 +4353,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -4419,42 +4473,42 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -4463,8 +4517,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -4473,8 +4527,8 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4483,15 +4537,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4522,7 +4576,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4531,11 +4585,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4545,6 +4600,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4555,28 +4611,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4585,102 +4641,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -4701,10 +4761,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -4714,20 +4774,20 @@
         <v>56</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>59</v>
@@ -4735,8 +4795,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
@@ -4745,8 +4805,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -4755,8 +4815,8 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -4765,15 +4825,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -4804,7 +4864,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4812,12 +4872,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,6 +4888,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4837,28 +4899,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4867,102 +4929,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -4983,83 +5049,97 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="99"/>
+      <c r="B13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>97</v>
+      <c r="C14" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>3</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5090,7 +5170,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5099,11 +5179,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5113,6 +5194,7 @@
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5123,28 +5205,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5153,104 +5235,106 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5271,10 +5355,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -5289,8 +5373,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
@@ -5299,8 +5383,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -5309,8 +5393,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -5319,8 +5403,8 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
@@ -5329,15 +5413,15 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
@@ -5368,7 +5452,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5377,11 +5461,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,28 +5487,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5432,17 +5517,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -5450,88 +5535,88 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5552,10 +5637,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -5570,8 +5655,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -5586,8 +5671,8 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -5602,8 +5687,8 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
@@ -5634,8 +5719,8 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
@@ -5650,15 +5735,15 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
@@ -5667,6 +5752,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C9:F9"/>
@@ -5676,20 +5772,9 @@
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5698,11 +5783,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,28 +5809,28 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5753,17 +5839,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="66" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -5771,88 +5857,88 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
       <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:8" ht="33.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -5873,10 +5959,10 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
@@ -5891,8 +5977,8 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
@@ -5907,8 +5993,8 @@
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -5923,8 +6009,8 @@
       <c r="D15" s="36"/>
       <c r="E15" s="36"/>
       <c r="F15" s="36"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
@@ -5939,8 +6025,8 @@
       <c r="D16" s="36"/>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
@@ -5955,8 +6041,8 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
@@ -5971,8 +6057,8 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
@@ -5987,8 +6073,8 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
@@ -5997,15 +6083,15 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
     </row>
     <row r="21" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
@@ -6039,7 +6125,7 @@
     <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>